--- a/orige.xlsx
+++ b/orige.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmakger\PycharmProjects\parserSchedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A5445D3-AFB0-4DEC-9388-7B758D53090F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809CB0F8-88EF-40AA-8378-A704BAC7B977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'П1-18 (ЭН)'!$A$1:$EJ$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1670,6 +1669,26 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1722,24 +1741,20 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1780,21 +1795,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1821,12 +1826,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2121,7 +2120,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:R4"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2148,26 +2147,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:126" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="156"/>
-      <c r="R1" s="156"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="161"/>
       <c r="DI1" s="28"/>
       <c r="DJ1" s="28"/>
       <c r="DK1" s="28"/>
@@ -2184,32 +2183,32 @@
       <c r="DV1" s="28"/>
     </row>
     <row r="2" spans="1:126" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170" t="s">
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170" t="s">
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170" t="s">
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
       <c r="DI2" s="30"/>
       <c r="DJ2" s="30"/>
       <c r="DK2" s="30"/>
@@ -2226,34 +2225,34 @@
       <c r="DV2" s="31"/>
     </row>
     <row r="3" spans="1:126" x14ac:dyDescent="0.25">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="166" t="s">
+      <c r="C3" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="160" t="s">
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="157" t="s">
+      <c r="P3" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="159"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="164"/>
       <c r="DI3" s="27"/>
       <c r="DJ3" s="27"/>
       <c r="DK3" s="27"/>
@@ -2269,8 +2268,8 @@
       <c r="DU3" s="27"/>
     </row>
     <row r="4" spans="1:126" s="35" customFormat="1" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="163"/>
-      <c r="B4" s="165"/>
+      <c r="A4" s="168"/>
+      <c r="B4" s="170"/>
       <c r="C4" s="58" t="s">
         <v>29</v>
       </c>
@@ -2307,7 +2306,7 @@
       <c r="N4" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="O4" s="161"/>
+      <c r="O4" s="166"/>
       <c r="P4" s="32" t="s">
         <v>12</v>
       </c>
@@ -2465,8 +2464,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="27">
-        <f>IF(COUNTIF(C5:N5,2),1,0)</f>
-        <v>0</v>
+        <f>IF(COUNTIF(C5:N5,2),0,1)</f>
+        <v>1</v>
       </c>
       <c r="T5" s="27">
         <f>IF(COUNTIF(C5:N5,2)+COUNTIF(C5:N5,3),0,1)</f>
@@ -2614,8 +2613,8 @@
         <v>0</v>
       </c>
       <c r="S6" s="27">
-        <f t="shared" ref="S6:S33" si="1">IF(COUNTIF(C6:N6,2),1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="S6:S33" si="1">IF(COUNTIF(C6:N6,2),0,1)</f>
+        <v>1</v>
       </c>
       <c r="T6" s="27">
         <f t="shared" ref="T6:T33" si="2">IF(COUNTIF(C6:N6,2)+COUNTIF(C6:N6,3),0,1)</f>
@@ -2764,7 +2763,7 @@
       </c>
       <c r="S7" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="27">
         <f t="shared" si="2"/>
@@ -2913,7 +2912,7 @@
       </c>
       <c r="S8" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="27">
         <f t="shared" si="2"/>
@@ -3062,7 +3061,7 @@
       </c>
       <c r="S9" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="27">
         <f t="shared" si="2"/>
@@ -3211,7 +3210,7 @@
       </c>
       <c r="S10" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="27">
         <f t="shared" si="2"/>
@@ -3360,7 +3359,7 @@
       </c>
       <c r="S11" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="27">
         <f t="shared" si="2"/>
@@ -3509,7 +3508,7 @@
       </c>
       <c r="S12" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="27">
         <f t="shared" si="2"/>
@@ -3658,7 +3657,7 @@
       </c>
       <c r="S13" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="27">
         <f t="shared" si="2"/>
@@ -3807,7 +3806,7 @@
       </c>
       <c r="S14" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="27">
         <f t="shared" si="2"/>
@@ -3956,7 +3955,7 @@
       </c>
       <c r="S15" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="27">
         <f t="shared" si="2"/>
@@ -4105,7 +4104,7 @@
       </c>
       <c r="S16" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="27">
         <f t="shared" si="2"/>
@@ -4254,7 +4253,7 @@
       </c>
       <c r="S17" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="27">
         <f t="shared" si="2"/>
@@ -4403,7 +4402,7 @@
       </c>
       <c r="S18" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="27">
         <f t="shared" si="2"/>
@@ -4552,7 +4551,7 @@
       </c>
       <c r="S19" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="27">
         <f t="shared" si="2"/>
@@ -4701,7 +4700,7 @@
       </c>
       <c r="S20" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="27">
         <f t="shared" si="2"/>
@@ -4850,7 +4849,7 @@
       </c>
       <c r="S21" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="27">
         <f t="shared" si="2"/>
@@ -4999,7 +4998,7 @@
       </c>
       <c r="S22" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="27">
         <f t="shared" si="2"/>
@@ -5148,7 +5147,7 @@
       </c>
       <c r="S23" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="27">
         <f t="shared" si="2"/>
@@ -5297,7 +5296,7 @@
       </c>
       <c r="S24" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="27">
         <f t="shared" si="2"/>
@@ -5446,7 +5445,7 @@
       </c>
       <c r="S25" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="27">
         <f t="shared" si="2"/>
@@ -5595,7 +5594,7 @@
       </c>
       <c r="S26" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="27">
         <f t="shared" si="2"/>
@@ -5744,7 +5743,7 @@
       </c>
       <c r="S27" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="27">
         <f t="shared" si="2"/>
@@ -5893,7 +5892,7 @@
       </c>
       <c r="S28" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="27">
         <f t="shared" si="2"/>
@@ -6042,7 +6041,7 @@
       </c>
       <c r="S29" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="27">
         <f t="shared" si="2"/>
@@ -6191,7 +6190,7 @@
       </c>
       <c r="S30" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="27">
         <f t="shared" si="2"/>
@@ -6248,7 +6247,7 @@
       </c>
       <c r="S31" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="27">
         <f t="shared" si="2"/>
@@ -6305,7 +6304,7 @@
       </c>
       <c r="S32" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="27">
         <f t="shared" si="2"/>
@@ -6349,7 +6348,7 @@
       </c>
       <c r="S33" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="27">
         <f t="shared" si="2"/>
@@ -6357,22 +6356,22 @@
       </c>
     </row>
     <row r="34" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="171" t="s">
+      <c r="A34" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="172"/>
-      <c r="C34" s="172"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="172"/>
-      <c r="K34" s="172"/>
-      <c r="L34" s="172"/>
-      <c r="M34" s="172"/>
-      <c r="N34" s="173"/>
+      <c r="B34" s="159"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="159"/>
+      <c r="J34" s="159"/>
+      <c r="K34" s="159"/>
+      <c r="L34" s="159"/>
+      <c r="M34" s="159"/>
+      <c r="N34" s="160"/>
       <c r="O34" s="53" t="e">
         <f>AVERAGE(O5:O33)</f>
         <v>#DIV/0!</v>
@@ -6391,7 +6390,7 @@
       </c>
       <c r="S34" s="27">
         <f>SUM(S5:S33)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="T34" s="27">
         <f>SUM(T5:T33)</f>
@@ -6399,15 +6398,15 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="169" t="s">
+      <c r="A36" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="169"/>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
+      <c r="B36" s="156"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
       <c r="E36" s="154">
         <f>(A33-S34)/A33</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="150"/>
     </row>
@@ -6415,12 +6414,12 @@
       <c r="E37" s="155"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="169" t="s">
+      <c r="A38" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="169"/>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="156"/>
       <c r="E38" s="154">
         <f>T34/A33</f>
         <v>1</v>
@@ -6431,12 +6430,12 @@
       <c r="E39" s="43"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="169" t="s">
+      <c r="A40" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="169"/>
-      <c r="C40" s="169"/>
-      <c r="D40" s="169"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="156"/>
       <c r="E40" s="153">
         <f>P34/A33</f>
         <v>0</v>
@@ -6449,6 +6448,12 @@
   </sheetData>
   <sheetProtection formatCells="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:N3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A40:D40"/>
@@ -6457,12 +6462,6 @@
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A34:N34"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:N3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.16" right="0.16" top="0.35433070866141736" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.19685039370078741"/>
@@ -6568,10 +6567,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:157" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="180" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="60"/>
@@ -6711,13 +6710,13 @@
       <c r="EE1" s="61"/>
       <c r="EF1" s="61"/>
       <c r="EG1" s="61"/>
-      <c r="EH1" s="179" t="s">
+      <c r="EH1" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="EI1" s="181" t="s">
+      <c r="EI1" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="EJ1" s="183" t="s">
+      <c r="EJ1" s="187" t="s">
         <v>2</v>
       </c>
       <c r="EK1" s="27"/>
@@ -6739,150 +6738,150 @@
       <c r="FA1" s="27"/>
     </row>
     <row r="2" spans="1:157" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="174"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="185" t="s">
+      <c r="A2" s="178"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="186"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="185"/>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="186"/>
-      <c r="Z2" s="186"/>
-      <c r="AA2" s="187"/>
-      <c r="AB2" s="185"/>
-      <c r="AC2" s="186"/>
-      <c r="AD2" s="186"/>
-      <c r="AE2" s="186"/>
-      <c r="AF2" s="187"/>
-      <c r="AG2" s="185"/>
-      <c r="AH2" s="186"/>
-      <c r="AI2" s="186"/>
-      <c r="AJ2" s="186"/>
-      <c r="AK2" s="187"/>
-      <c r="AL2" s="185"/>
-      <c r="AM2" s="186"/>
-      <c r="AN2" s="186"/>
-      <c r="AO2" s="186"/>
-      <c r="AP2" s="187"/>
-      <c r="AQ2" s="185"/>
-      <c r="AR2" s="186"/>
-      <c r="AS2" s="186"/>
-      <c r="AT2" s="186"/>
-      <c r="AU2" s="187"/>
-      <c r="AV2" s="185"/>
-      <c r="AW2" s="186"/>
-      <c r="AX2" s="186"/>
-      <c r="AY2" s="186"/>
-      <c r="AZ2" s="187"/>
-      <c r="BA2" s="185">
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="176"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="176"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="176"/>
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="174"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="175"/>
+      <c r="AJ2" s="175"/>
+      <c r="AK2" s="176"/>
+      <c r="AL2" s="174"/>
+      <c r="AM2" s="175"/>
+      <c r="AN2" s="175"/>
+      <c r="AO2" s="175"/>
+      <c r="AP2" s="176"/>
+      <c r="AQ2" s="174"/>
+      <c r="AR2" s="175"/>
+      <c r="AS2" s="175"/>
+      <c r="AT2" s="175"/>
+      <c r="AU2" s="176"/>
+      <c r="AV2" s="174"/>
+      <c r="AW2" s="175"/>
+      <c r="AX2" s="175"/>
+      <c r="AY2" s="175"/>
+      <c r="AZ2" s="176"/>
+      <c r="BA2" s="174">
         <v>43360</v>
       </c>
-      <c r="BB2" s="186"/>
-      <c r="BC2" s="186"/>
-      <c r="BD2" s="186"/>
-      <c r="BE2" s="187"/>
-      <c r="BF2" s="185"/>
-      <c r="BG2" s="186"/>
-      <c r="BH2" s="186"/>
-      <c r="BI2" s="186"/>
-      <c r="BJ2" s="187"/>
-      <c r="BK2" s="185"/>
-      <c r="BL2" s="186"/>
-      <c r="BM2" s="186"/>
-      <c r="BN2" s="186"/>
-      <c r="BO2" s="187"/>
-      <c r="BP2" s="185"/>
-      <c r="BQ2" s="186"/>
-      <c r="BR2" s="186"/>
-      <c r="BS2" s="186"/>
-      <c r="BT2" s="187"/>
-      <c r="BU2" s="185"/>
-      <c r="BV2" s="186"/>
-      <c r="BW2" s="186"/>
-      <c r="BX2" s="186"/>
-      <c r="BY2" s="187"/>
-      <c r="BZ2" s="185"/>
-      <c r="CA2" s="186"/>
-      <c r="CB2" s="186"/>
-      <c r="CC2" s="186"/>
-      <c r="CD2" s="187"/>
-      <c r="CE2" s="185"/>
-      <c r="CF2" s="186"/>
-      <c r="CG2" s="186"/>
-      <c r="CH2" s="186"/>
-      <c r="CI2" s="187"/>
-      <c r="CJ2" s="185"/>
-      <c r="CK2" s="186"/>
-      <c r="CL2" s="186"/>
-      <c r="CM2" s="186"/>
-      <c r="CN2" s="187"/>
-      <c r="CO2" s="185"/>
-      <c r="CP2" s="186"/>
-      <c r="CQ2" s="186"/>
-      <c r="CR2" s="186"/>
-      <c r="CS2" s="187"/>
-      <c r="CT2" s="185"/>
-      <c r="CU2" s="186"/>
-      <c r="CV2" s="186"/>
-      <c r="CW2" s="186"/>
-      <c r="CX2" s="187"/>
-      <c r="CY2" s="188"/>
-      <c r="CZ2" s="186"/>
-      <c r="DA2" s="186"/>
-      <c r="DB2" s="186"/>
-      <c r="DC2" s="187"/>
-      <c r="DD2" s="188"/>
-      <c r="DE2" s="186"/>
-      <c r="DF2" s="186"/>
-      <c r="DG2" s="186"/>
-      <c r="DH2" s="187"/>
-      <c r="DI2" s="188"/>
-      <c r="DJ2" s="186"/>
-      <c r="DK2" s="186"/>
-      <c r="DL2" s="186"/>
-      <c r="DM2" s="187"/>
-      <c r="DN2" s="188"/>
-      <c r="DO2" s="186"/>
-      <c r="DP2" s="186"/>
-      <c r="DQ2" s="186"/>
-      <c r="DR2" s="187"/>
-      <c r="DS2" s="188"/>
-      <c r="DT2" s="186"/>
-      <c r="DU2" s="186"/>
-      <c r="DV2" s="186"/>
-      <c r="DW2" s="187"/>
-      <c r="DX2" s="188"/>
-      <c r="DY2" s="186"/>
-      <c r="DZ2" s="186"/>
-      <c r="EA2" s="186"/>
-      <c r="EB2" s="187"/>
-      <c r="EC2" s="188"/>
-      <c r="ED2" s="186"/>
-      <c r="EE2" s="186"/>
-      <c r="EF2" s="186"/>
-      <c r="EG2" s="187"/>
-      <c r="EH2" s="180"/>
-      <c r="EI2" s="182"/>
-      <c r="EJ2" s="184"/>
+      <c r="BB2" s="175"/>
+      <c r="BC2" s="175"/>
+      <c r="BD2" s="175"/>
+      <c r="BE2" s="176"/>
+      <c r="BF2" s="174"/>
+      <c r="BG2" s="175"/>
+      <c r="BH2" s="175"/>
+      <c r="BI2" s="175"/>
+      <c r="BJ2" s="176"/>
+      <c r="BK2" s="174"/>
+      <c r="BL2" s="175"/>
+      <c r="BM2" s="175"/>
+      <c r="BN2" s="175"/>
+      <c r="BO2" s="176"/>
+      <c r="BP2" s="174"/>
+      <c r="BQ2" s="175"/>
+      <c r="BR2" s="175"/>
+      <c r="BS2" s="175"/>
+      <c r="BT2" s="176"/>
+      <c r="BU2" s="174"/>
+      <c r="BV2" s="175"/>
+      <c r="BW2" s="175"/>
+      <c r="BX2" s="175"/>
+      <c r="BY2" s="176"/>
+      <c r="BZ2" s="174"/>
+      <c r="CA2" s="175"/>
+      <c r="CB2" s="175"/>
+      <c r="CC2" s="175"/>
+      <c r="CD2" s="176"/>
+      <c r="CE2" s="174"/>
+      <c r="CF2" s="175"/>
+      <c r="CG2" s="175"/>
+      <c r="CH2" s="175"/>
+      <c r="CI2" s="176"/>
+      <c r="CJ2" s="174"/>
+      <c r="CK2" s="175"/>
+      <c r="CL2" s="175"/>
+      <c r="CM2" s="175"/>
+      <c r="CN2" s="176"/>
+      <c r="CO2" s="174"/>
+      <c r="CP2" s="175"/>
+      <c r="CQ2" s="175"/>
+      <c r="CR2" s="175"/>
+      <c r="CS2" s="176"/>
+      <c r="CT2" s="174"/>
+      <c r="CU2" s="175"/>
+      <c r="CV2" s="175"/>
+      <c r="CW2" s="175"/>
+      <c r="CX2" s="176"/>
+      <c r="CY2" s="177"/>
+      <c r="CZ2" s="175"/>
+      <c r="DA2" s="175"/>
+      <c r="DB2" s="175"/>
+      <c r="DC2" s="176"/>
+      <c r="DD2" s="177"/>
+      <c r="DE2" s="175"/>
+      <c r="DF2" s="175"/>
+      <c r="DG2" s="175"/>
+      <c r="DH2" s="176"/>
+      <c r="DI2" s="177"/>
+      <c r="DJ2" s="175"/>
+      <c r="DK2" s="175"/>
+      <c r="DL2" s="175"/>
+      <c r="DM2" s="176"/>
+      <c r="DN2" s="177"/>
+      <c r="DO2" s="175"/>
+      <c r="DP2" s="175"/>
+      <c r="DQ2" s="175"/>
+      <c r="DR2" s="176"/>
+      <c r="DS2" s="177"/>
+      <c r="DT2" s="175"/>
+      <c r="DU2" s="175"/>
+      <c r="DV2" s="175"/>
+      <c r="DW2" s="176"/>
+      <c r="DX2" s="177"/>
+      <c r="DY2" s="175"/>
+      <c r="DZ2" s="175"/>
+      <c r="EA2" s="175"/>
+      <c r="EB2" s="176"/>
+      <c r="EC2" s="177"/>
+      <c r="ED2" s="175"/>
+      <c r="EE2" s="175"/>
+      <c r="EF2" s="175"/>
+      <c r="EG2" s="176"/>
+      <c r="EH2" s="184"/>
+      <c r="EI2" s="186"/>
+      <c r="EJ2" s="188"/>
       <c r="EK2" s="27"/>
       <c r="EL2" s="27"/>
       <c r="EM2" s="27"/>
@@ -6902,8 +6901,8 @@
       <c r="FA2" s="27"/>
     </row>
     <row r="3" spans="1:157" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="175"/>
-      <c r="B3" s="178"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="182"/>
       <c r="C3" s="66" t="s">
         <v>3</v>
       </c>
@@ -7309,9 +7308,9 @@
       <c r="EG3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="EH3" s="180"/>
-      <c r="EI3" s="182"/>
-      <c r="EJ3" s="184"/>
+      <c r="EH3" s="184"/>
+      <c r="EI3" s="186"/>
+      <c r="EJ3" s="188"/>
       <c r="EK3" s="27"/>
       <c r="EL3" s="27"/>
       <c r="EM3" s="27"/>
@@ -13610,22 +13609,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="BZ2:CD2"/>
-    <mergeCell ref="DN2:DR2"/>
-    <mergeCell ref="DS2:DW2"/>
-    <mergeCell ref="DX2:EB2"/>
-    <mergeCell ref="EC2:EG2"/>
-    <mergeCell ref="CJ2:CN2"/>
-    <mergeCell ref="CO2:CS2"/>
-    <mergeCell ref="CT2:CX2"/>
-    <mergeCell ref="CY2:DC2"/>
-    <mergeCell ref="DD2:DH2"/>
-    <mergeCell ref="DI2:DM2"/>
-    <mergeCell ref="BA2:BE2"/>
-    <mergeCell ref="BF2:BJ2"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BP2:BT2"/>
-    <mergeCell ref="BU2:BY2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="EH1:EH3"/>
@@ -13642,6 +13625,22 @@
     <mergeCell ref="AL2:AP2"/>
     <mergeCell ref="AQ2:AU2"/>
     <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BE2"/>
+    <mergeCell ref="BF2:BJ2"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BP2:BT2"/>
+    <mergeCell ref="BU2:BY2"/>
+    <mergeCell ref="BZ2:CD2"/>
+    <mergeCell ref="DN2:DR2"/>
+    <mergeCell ref="DS2:DW2"/>
+    <mergeCell ref="DX2:EB2"/>
+    <mergeCell ref="EC2:EG2"/>
+    <mergeCell ref="CJ2:CN2"/>
+    <mergeCell ref="CO2:CS2"/>
+    <mergeCell ref="CT2:CX2"/>
+    <mergeCell ref="CY2:DC2"/>
+    <mergeCell ref="DD2:DH2"/>
+    <mergeCell ref="DI2:DM2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.19685039370078741" top="0.35433070866141736" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.19685039370078741"/>
@@ -13750,10 +13749,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:160" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="197" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7"/>
@@ -13916,143 +13915,143 @@
       <c r="FD1"/>
     </row>
     <row r="2" spans="1:160" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="193"/>
-      <c r="B2" s="196"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="190"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="191"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="191"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="190"/>
-      <c r="AA2" s="191"/>
-      <c r="AB2" s="189"/>
-      <c r="AC2" s="190"/>
-      <c r="AD2" s="190"/>
-      <c r="AE2" s="190"/>
-      <c r="AF2" s="191"/>
-      <c r="AG2" s="189"/>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="190"/>
-      <c r="AJ2" s="190"/>
-      <c r="AK2" s="191"/>
-      <c r="AL2" s="189"/>
-      <c r="AM2" s="190"/>
-      <c r="AN2" s="190"/>
-      <c r="AO2" s="190"/>
-      <c r="AP2" s="191"/>
-      <c r="AQ2" s="189"/>
-      <c r="AR2" s="190"/>
-      <c r="AS2" s="190"/>
-      <c r="AT2" s="190"/>
-      <c r="AU2" s="191"/>
-      <c r="AV2" s="189"/>
-      <c r="AW2" s="190"/>
-      <c r="AX2" s="190"/>
-      <c r="AY2" s="190"/>
-      <c r="AZ2" s="191"/>
-      <c r="BA2" s="189"/>
-      <c r="BB2" s="190"/>
-      <c r="BC2" s="190"/>
-      <c r="BD2" s="190"/>
-      <c r="BE2" s="191"/>
-      <c r="BF2" s="189"/>
-      <c r="BG2" s="190"/>
-      <c r="BH2" s="190"/>
-      <c r="BI2" s="190"/>
-      <c r="BJ2" s="191"/>
-      <c r="BK2" s="189"/>
-      <c r="BL2" s="190"/>
-      <c r="BM2" s="190"/>
-      <c r="BN2" s="190"/>
-      <c r="BO2" s="191"/>
-      <c r="BP2" s="189"/>
-      <c r="BQ2" s="190"/>
-      <c r="BR2" s="190"/>
-      <c r="BS2" s="190"/>
-      <c r="BT2" s="191"/>
-      <c r="BU2" s="189"/>
-      <c r="BV2" s="190"/>
-      <c r="BW2" s="190"/>
-      <c r="BX2" s="190"/>
-      <c r="BY2" s="191"/>
-      <c r="BZ2" s="189"/>
-      <c r="CA2" s="190"/>
-      <c r="CB2" s="190"/>
-      <c r="CC2" s="190"/>
-      <c r="CD2" s="191"/>
-      <c r="CE2" s="189"/>
-      <c r="CF2" s="190"/>
-      <c r="CG2" s="190"/>
-      <c r="CH2" s="190"/>
-      <c r="CI2" s="191"/>
-      <c r="CJ2" s="189"/>
-      <c r="CK2" s="190"/>
-      <c r="CL2" s="190"/>
-      <c r="CM2" s="190"/>
-      <c r="CN2" s="191"/>
-      <c r="CO2" s="189"/>
-      <c r="CP2" s="190"/>
-      <c r="CQ2" s="190"/>
-      <c r="CR2" s="190"/>
-      <c r="CS2" s="191"/>
-      <c r="CT2" s="189"/>
-      <c r="CU2" s="190"/>
-      <c r="CV2" s="190"/>
-      <c r="CW2" s="190"/>
-      <c r="CX2" s="191"/>
-      <c r="CY2" s="189"/>
-      <c r="CZ2" s="190"/>
-      <c r="DA2" s="190"/>
-      <c r="DB2" s="190"/>
-      <c r="DC2" s="191"/>
-      <c r="DD2" s="189"/>
-      <c r="DE2" s="190"/>
-      <c r="DF2" s="190"/>
-      <c r="DG2" s="190"/>
-      <c r="DH2" s="191"/>
-      <c r="DI2" s="189"/>
-      <c r="DJ2" s="190"/>
-      <c r="DK2" s="190"/>
-      <c r="DL2" s="190"/>
-      <c r="DM2" s="191"/>
-      <c r="DN2" s="189"/>
-      <c r="DO2" s="190"/>
-      <c r="DP2" s="190"/>
-      <c r="DQ2" s="190"/>
-      <c r="DR2" s="191"/>
-      <c r="DS2" s="189"/>
-      <c r="DT2" s="190"/>
-      <c r="DU2" s="190"/>
-      <c r="DV2" s="190"/>
-      <c r="DW2" s="191"/>
-      <c r="DX2" s="189"/>
-      <c r="DY2" s="190"/>
-      <c r="DZ2" s="190"/>
-      <c r="EA2" s="190"/>
-      <c r="EB2" s="191"/>
-      <c r="EC2" s="189"/>
-      <c r="ED2" s="190"/>
-      <c r="EE2" s="190"/>
-      <c r="EF2" s="190"/>
-      <c r="EG2" s="191"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="192"/>
+      <c r="P2" s="192"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="191"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="191"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="192"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="191"/>
+      <c r="AC2" s="192"/>
+      <c r="AD2" s="192"/>
+      <c r="AE2" s="192"/>
+      <c r="AF2" s="193"/>
+      <c r="AG2" s="191"/>
+      <c r="AH2" s="192"/>
+      <c r="AI2" s="192"/>
+      <c r="AJ2" s="192"/>
+      <c r="AK2" s="193"/>
+      <c r="AL2" s="191"/>
+      <c r="AM2" s="192"/>
+      <c r="AN2" s="192"/>
+      <c r="AO2" s="192"/>
+      <c r="AP2" s="193"/>
+      <c r="AQ2" s="191"/>
+      <c r="AR2" s="192"/>
+      <c r="AS2" s="192"/>
+      <c r="AT2" s="192"/>
+      <c r="AU2" s="193"/>
+      <c r="AV2" s="191"/>
+      <c r="AW2" s="192"/>
+      <c r="AX2" s="192"/>
+      <c r="AY2" s="192"/>
+      <c r="AZ2" s="193"/>
+      <c r="BA2" s="191"/>
+      <c r="BB2" s="192"/>
+      <c r="BC2" s="192"/>
+      <c r="BD2" s="192"/>
+      <c r="BE2" s="193"/>
+      <c r="BF2" s="191"/>
+      <c r="BG2" s="192"/>
+      <c r="BH2" s="192"/>
+      <c r="BI2" s="192"/>
+      <c r="BJ2" s="193"/>
+      <c r="BK2" s="191"/>
+      <c r="BL2" s="192"/>
+      <c r="BM2" s="192"/>
+      <c r="BN2" s="192"/>
+      <c r="BO2" s="193"/>
+      <c r="BP2" s="191"/>
+      <c r="BQ2" s="192"/>
+      <c r="BR2" s="192"/>
+      <c r="BS2" s="192"/>
+      <c r="BT2" s="193"/>
+      <c r="BU2" s="191"/>
+      <c r="BV2" s="192"/>
+      <c r="BW2" s="192"/>
+      <c r="BX2" s="192"/>
+      <c r="BY2" s="193"/>
+      <c r="BZ2" s="191"/>
+      <c r="CA2" s="192"/>
+      <c r="CB2" s="192"/>
+      <c r="CC2" s="192"/>
+      <c r="CD2" s="193"/>
+      <c r="CE2" s="191"/>
+      <c r="CF2" s="192"/>
+      <c r="CG2" s="192"/>
+      <c r="CH2" s="192"/>
+      <c r="CI2" s="193"/>
+      <c r="CJ2" s="191"/>
+      <c r="CK2" s="192"/>
+      <c r="CL2" s="192"/>
+      <c r="CM2" s="192"/>
+      <c r="CN2" s="193"/>
+      <c r="CO2" s="191"/>
+      <c r="CP2" s="192"/>
+      <c r="CQ2" s="192"/>
+      <c r="CR2" s="192"/>
+      <c r="CS2" s="193"/>
+      <c r="CT2" s="191"/>
+      <c r="CU2" s="192"/>
+      <c r="CV2" s="192"/>
+      <c r="CW2" s="192"/>
+      <c r="CX2" s="193"/>
+      <c r="CY2" s="191"/>
+      <c r="CZ2" s="192"/>
+      <c r="DA2" s="192"/>
+      <c r="DB2" s="192"/>
+      <c r="DC2" s="193"/>
+      <c r="DD2" s="191"/>
+      <c r="DE2" s="192"/>
+      <c r="DF2" s="192"/>
+      <c r="DG2" s="192"/>
+      <c r="DH2" s="193"/>
+      <c r="DI2" s="191"/>
+      <c r="DJ2" s="192"/>
+      <c r="DK2" s="192"/>
+      <c r="DL2" s="192"/>
+      <c r="DM2" s="193"/>
+      <c r="DN2" s="191"/>
+      <c r="DO2" s="192"/>
+      <c r="DP2" s="192"/>
+      <c r="DQ2" s="192"/>
+      <c r="DR2" s="193"/>
+      <c r="DS2" s="191"/>
+      <c r="DT2" s="192"/>
+      <c r="DU2" s="192"/>
+      <c r="DV2" s="192"/>
+      <c r="DW2" s="193"/>
+      <c r="DX2" s="191"/>
+      <c r="DY2" s="192"/>
+      <c r="DZ2" s="192"/>
+      <c r="EA2" s="192"/>
+      <c r="EB2" s="193"/>
+      <c r="EC2" s="191"/>
+      <c r="ED2" s="192"/>
+      <c r="EE2" s="192"/>
+      <c r="EF2" s="192"/>
+      <c r="EG2" s="193"/>
       <c r="EH2"/>
       <c r="EI2"/>
       <c r="EJ2"/>
@@ -14078,8 +14077,8 @@
       <c r="FD2"/>
     </row>
     <row r="3" spans="1:160" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="194"/>
-      <c r="B3" s="197"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="199"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
@@ -19816,10 +19815,10 @@
       <c r="FD35" s="19"/>
     </row>
     <row r="36" spans="1:160" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="198" t="s">
+      <c r="A36" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="199"/>
+      <c r="B36" s="190"/>
       <c r="C36" s="20"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
@@ -20492,6 +20491,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="EC2:EG2"/>
+    <mergeCell ref="CJ2:CN2"/>
+    <mergeCell ref="CO2:CS2"/>
+    <mergeCell ref="CT2:CX2"/>
+    <mergeCell ref="CY2:DC2"/>
+    <mergeCell ref="DD2:DH2"/>
+    <mergeCell ref="DI2:DM2"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="DN2:DR2"/>
     <mergeCell ref="DS2:DW2"/>
@@ -20508,20 +20521,6 @@
     <mergeCell ref="AQ2:AU2"/>
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA2:BE2"/>
-    <mergeCell ref="EC2:EG2"/>
-    <mergeCell ref="CJ2:CN2"/>
-    <mergeCell ref="CO2:CS2"/>
-    <mergeCell ref="CT2:CX2"/>
-    <mergeCell ref="CY2:DC2"/>
-    <mergeCell ref="DD2:DH2"/>
-    <mergeCell ref="DI2:DM2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="W2:AA2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:Q2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.19685039370078741" top="0.35433070866141736" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.19685039370078741"/>
